--- a/Казахи-студенты.xlsx
+++ b/Казахи-студенты.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
-    <t>?</t>
+    <t>Мб как-то получше отразить их национализм</t>
   </si>
   <si>
-    <t>Мб как-то получше отразить их национализм</t>
+    <t>f:</t>
+  </si>
+  <si>
+    <t>120/x</t>
   </si>
 </sst>
 </file>
@@ -64,7 +67,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -80,9 +83,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -120,7 +123,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -192,7 +195,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -344,13 +347,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -365,7 +368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -380,7 +383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>1/12</f>
         <v>8.3333333333333329E-2</v>
@@ -390,29 +393,23 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
-        <v>0.19444444444444442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+        <v>7.1944444444444446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.1</v>
       </c>
@@ -433,7 +430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.2</v>
       </c>
@@ -454,7 +451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -472,7 +469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -490,7 +487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.01</v>
       </c>
@@ -511,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.1</v>
       </c>
@@ -532,7 +529,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.15</v>
       </c>
@@ -553,7 +550,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.05</v>
       </c>
@@ -600,7 +597,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.97</v>
       </c>
@@ -612,7 +609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.3</v>
       </c>
@@ -624,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.15</v>
       </c>
@@ -651,7 +648,7 @@
         <v>1.1500000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.7</v>
       </c>
@@ -675,7 +672,7 @@
         <v>1.8200000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.8</v>
       </c>
@@ -699,7 +696,7 @@
         <v>1.5200000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -711,7 +708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -732,7 +729,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.7</v>
       </c>
@@ -749,7 +746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -766,30 +763,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>

--- a/Казахи-студенты.xlsx
+++ b/Казахи-студенты.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -348,7 +348,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,12 +385,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>1/12</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.08</v>
       </c>
       <c r="B3">
-        <f>1/9</f>
-        <v>0.1111111111111111</v>
+        <v>0.11</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -406,7 +404,7 @@
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
-        <v>7.1944444444444446</v>
+        <v>7.1899999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">

--- a/Казахи-студенты.xlsx
+++ b/Казахи-студенты.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -345,15 +345,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -368,7 +368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -379,11 +379,11 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I18" si="0">SUM(A2:H2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I2:I33" si="0">SUM(A2:H2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.08</v>
       </c>
@@ -407,7 +407,7 @@
         <v>7.1899999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.1</v>
       </c>
@@ -428,7 +428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.2</v>
       </c>
@@ -449,7 +449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -467,7 +467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.01</v>
       </c>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.1</v>
       </c>
@@ -527,7 +527,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.15</v>
       </c>
@@ -548,247 +548,320 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.05</v>
       </c>
       <c r="B11">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>0.05</v>
       </c>
-      <c r="C11">
-        <v>0.1</v>
-      </c>
-      <c r="D11">
+      <c r="B12">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.1</v>
+      </c>
+      <c r="B13">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>0.05</v>
       </c>
-      <c r="E11">
+      <c r="B14">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>0.05</v>
       </c>
-      <c r="F11">
+      <c r="B15">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>0.3</v>
       </c>
-      <c r="G11">
-        <v>0.6</v>
-      </c>
-      <c r="H11">
-        <v>0.01</v>
-      </c>
-      <c r="I11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J11">
-        <v>0.15</v>
-      </c>
-      <c r="K11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L11">
-        <v>0.03</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0.97</v>
-      </c>
-      <c r="B12">
-        <v>0.03</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0.3</v>
-      </c>
-      <c r="B13">
+      <c r="B16">
         <v>0.7</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0.15</v>
-      </c>
-      <c r="B14">
-        <v>0.1</v>
-      </c>
-      <c r="C14">
-        <v>0.7</v>
-      </c>
-      <c r="D14">
-        <v>0.1</v>
-      </c>
-      <c r="E14">
-        <v>0.1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>1.1500000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0.7</v>
-      </c>
-      <c r="B15">
-        <v>0.05</v>
-      </c>
-      <c r="C15">
-        <v>0.6</v>
-      </c>
-      <c r="D15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E15">
-        <v>0.3</v>
-      </c>
-      <c r="F15">
-        <v>0.1</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>1.8200000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0.8</v>
-      </c>
-      <c r="B16">
-        <v>0.02</v>
-      </c>
-      <c r="C16">
-        <v>0.4</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0.3</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>1.5200000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>15</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.7</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="B19">
-        <v>1.9</v>
-      </c>
-      <c r="C19">
-        <v>12</v>
-      </c>
-      <c r="D19">
-        <v>17</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>40</v>
-      </c>
-      <c r="E20">
-        <v>30</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1</v>
+      <c r="A21">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>17</v>
-      </c>
-      <c r="D21">
-        <v>23</v>
+        <v>0.92999999999999994</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B24">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B25">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.97</v>
+      </c>
+      <c r="B27">
+        <v>0.03</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.3</v>
+      </c>
+      <c r="B28">
+        <v>0.7</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.15</v>
+      </c>
+      <c r="B29">
+        <v>0.1</v>
+      </c>
+      <c r="C29">
+        <v>0.7</v>
+      </c>
+      <c r="D29">
+        <v>0.1</v>
+      </c>
+      <c r="E29">
+        <v>0.1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>1.1500000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.7</v>
+      </c>
+      <c r="B30">
+        <v>0.05</v>
+      </c>
+      <c r="C30">
+        <v>0.6</v>
+      </c>
+      <c r="D30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E30">
+        <v>0.3</v>
+      </c>
+      <c r="F30">
+        <v>0.1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>1.8200000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.8</v>
+      </c>
+      <c r="B31">
+        <v>0.02</v>
+      </c>
+      <c r="C31">
+        <v>0.4</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0.3</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>1.5200000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.7</v>
+      </c>
+      <c r="B34">
+        <v>1.9</v>
+      </c>
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>17</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>40</v>
+      </c>
+      <c r="E35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>0.2</v>
       </c>
     </row>
